--- a/Python/resultados/HW_C011_120.xlsx
+++ b/Python/resultados/HW_C011_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.84375</v>
+        <v>27.85093759301251</v>
       </c>
       <c r="C2" t="n">
-        <v>31.3125</v>
+        <v>31.30499278530378</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8125</v>
+        <v>27.81658219922084</v>
       </c>
       <c r="C3" t="n">
-        <v>31.265625</v>
+        <v>31.26221328012794</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.796875</v>
+        <v>27.7938933766297</v>
       </c>
       <c r="C4" t="n">
-        <v>31.265625</v>
+        <v>31.27200857524841</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.796875</v>
+        <v>27.8041697442676</v>
       </c>
       <c r="C5" t="n">
-        <v>31.28125</v>
+        <v>31.28438020501203</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.796875</v>
+        <v>27.80005135302297</v>
       </c>
       <c r="C6" t="n">
-        <v>31.296875</v>
+        <v>31.29535990136297</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.828125</v>
+        <v>27.82345045813658</v>
       </c>
       <c r="C7" t="n">
-        <v>31.265625</v>
+        <v>31.26162660740683</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.859375</v>
+        <v>27.85300797181988</v>
       </c>
       <c r="C8" t="n">
-        <v>31.265625</v>
+        <v>31.26090805584424</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.796875</v>
+        <v>27.79091590194805</v>
       </c>
       <c r="C9" t="n">
-        <v>31.28125</v>
+        <v>31.27829912349581</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.84375</v>
+        <v>27.83600223158515</v>
       </c>
       <c r="C10" t="n">
-        <v>31.28125</v>
+        <v>31.28862073911401</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.828125</v>
+        <v>27.8228161759004</v>
       </c>
       <c r="C11" t="n">
-        <v>31.296875</v>
+        <v>31.29575395987793</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.8125</v>
+        <v>27.81918270055437</v>
       </c>
       <c r="C12" t="n">
-        <v>31.28125</v>
+        <v>31.2804163232794</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.703125</v>
+        <v>19.70500473168443</v>
       </c>
       <c r="C2" t="n">
-        <v>27.765625</v>
+        <v>27.76008228379396</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6875</v>
+        <v>19.69010847023509</v>
       </c>
       <c r="C3" t="n">
-        <v>27.75</v>
+        <v>27.75731857934534</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.6875</v>
+        <v>19.68805822976169</v>
       </c>
       <c r="C4" t="n">
-        <v>27.734375</v>
+        <v>27.74161545163189</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6875</v>
+        <v>19.6919575949737</v>
       </c>
       <c r="C5" t="n">
-        <v>27.703125</v>
+        <v>27.69929462883706</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6875</v>
+        <v>19.68342974970465</v>
       </c>
       <c r="C6" t="n">
-        <v>27.765625</v>
+        <v>27.76190811334769</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.6875</v>
+        <v>19.68750592871477</v>
       </c>
       <c r="C7" t="n">
-        <v>27.78125</v>
+        <v>27.78329529707954</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.6875</v>
+        <v>19.69425374097414</v>
       </c>
       <c r="C8" t="n">
-        <v>27.78125</v>
+        <v>27.77822413744289</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.671875</v>
+        <v>19.67751416913032</v>
       </c>
       <c r="C9" t="n">
-        <v>27.734375</v>
+        <v>27.74053838164122</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.671875</v>
+        <v>19.67754537564062</v>
       </c>
       <c r="C10" t="n">
-        <v>27.765625</v>
+        <v>27.77332333341515</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.671875</v>
+        <v>19.67284770738014</v>
       </c>
       <c r="C11" t="n">
-        <v>27.734375</v>
+        <v>27.74028356326328</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.6875</v>
+        <v>19.68682256981996</v>
       </c>
       <c r="C12" t="n">
-        <v>27.75</v>
+        <v>27.7535883769798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.67218905703577</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.5469566443962</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.68277900071762</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22.56495161203066</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.69089101910216</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.52866168101401</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.69064886449247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.53348694456143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.69355985260382</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.56257848337445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.69414521400686</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.52944917738828</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.67408945050213</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.54715835203611</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.69549093456045</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.5189632524404</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.67949299936367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.55797782978884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.68606969036923</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.58686847416819</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.68593560827542</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22.54770524511986</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C011_120.xlsx
+++ b/Python/resultados/HW_C011_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.85093759301251</v>
+        <v>27.76911232435696</v>
       </c>
       <c r="C2" t="n">
-        <v>31.30499278530378</v>
+        <v>30.95469958623617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.81658219922084</v>
+        <v>27.77218200925297</v>
       </c>
       <c r="C3" t="n">
-        <v>31.26221328012794</v>
+        <v>30.94594025855241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.7938933766297</v>
+        <v>27.77961035142656</v>
       </c>
       <c r="C4" t="n">
-        <v>31.27200857524841</v>
+        <v>30.95196471224806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8041697442676</v>
+        <v>27.77726214367717</v>
       </c>
       <c r="C5" t="n">
-        <v>31.28438020501203</v>
+        <v>30.9284795414577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.80005135302297</v>
+        <v>27.77727439371471</v>
       </c>
       <c r="C6" t="n">
-        <v>31.29535990136297</v>
+        <v>30.94385957015226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.82345045813658</v>
+        <v>27.78616386283362</v>
       </c>
       <c r="C7" t="n">
-        <v>31.26162660740683</v>
+        <v>30.9421712131131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.85300797181988</v>
+        <v>27.75530679326049</v>
       </c>
       <c r="C8" t="n">
-        <v>31.26090805584424</v>
+        <v>30.92070938909953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.79091590194805</v>
+        <v>27.75427856400638</v>
       </c>
       <c r="C9" t="n">
-        <v>31.27829912349581</v>
+        <v>30.91092999684085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.83600223158515</v>
+        <v>27.7901244056256</v>
       </c>
       <c r="C10" t="n">
-        <v>31.28862073911401</v>
+        <v>30.9329328084545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8228161759004</v>
+        <v>27.74684977610189</v>
       </c>
       <c r="C11" t="n">
-        <v>31.29575395987793</v>
+        <v>30.91411999277354</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.81918270055437</v>
+        <v>27.77081646242563</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2804163232794</v>
+        <v>30.93458070689281</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.70500473168443</v>
+        <v>19.65532595139404</v>
       </c>
       <c r="C2" t="n">
-        <v>27.76008228379396</v>
+        <v>27.72216175425647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.69010847023509</v>
+        <v>19.67921997613642</v>
       </c>
       <c r="C3" t="n">
-        <v>27.75731857934534</v>
+        <v>27.7557374228078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.68805822976169</v>
+        <v>19.66943412625176</v>
       </c>
       <c r="C4" t="n">
-        <v>27.74161545163189</v>
+        <v>27.72065624395826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6919575949737</v>
+        <v>19.66423290171531</v>
       </c>
       <c r="C5" t="n">
-        <v>27.69929462883706</v>
+        <v>27.74387410776457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.68342974970465</v>
+        <v>19.66589164591669</v>
       </c>
       <c r="C6" t="n">
-        <v>27.76190811334769</v>
+        <v>27.76003178999528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.68750592871477</v>
+        <v>19.66379350465722</v>
       </c>
       <c r="C7" t="n">
-        <v>27.78329529707954</v>
+        <v>27.73792074456587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.69425374097414</v>
+        <v>19.67290162511125</v>
       </c>
       <c r="C8" t="n">
-        <v>27.77822413744289</v>
+        <v>27.75306045787445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.67751416913032</v>
+        <v>19.68033866088162</v>
       </c>
       <c r="C9" t="n">
-        <v>27.74053838164122</v>
+        <v>27.74286629429223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.67754537564062</v>
+        <v>19.66450176155188</v>
       </c>
       <c r="C10" t="n">
-        <v>27.77332333341515</v>
+        <v>27.77910290379109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.67284770738014</v>
+        <v>19.67037031089562</v>
       </c>
       <c r="C11" t="n">
-        <v>27.74028356326328</v>
+        <v>27.78218657562942</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.68682256981996</v>
+        <v>19.66860104645118</v>
       </c>
       <c r="C12" t="n">
-        <v>27.7535883769798</v>
+        <v>27.74975982949355</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.67218905703577</v>
+        <v>14.57274643124718</v>
       </c>
       <c r="C2" t="n">
-        <v>22.5469566443962</v>
+        <v>22.39794536257531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.68277900071762</v>
+        <v>14.5615505613959</v>
       </c>
       <c r="C3" t="n">
-        <v>22.56495161203066</v>
+        <v>22.41449991866852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.69089101910216</v>
+        <v>14.57925255383172</v>
       </c>
       <c r="C4" t="n">
-        <v>22.52866168101401</v>
+        <v>22.43477074005446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.69064886449247</v>
+        <v>14.58060040727101</v>
       </c>
       <c r="C5" t="n">
-        <v>22.53348694456143</v>
+        <v>22.45316896784264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.69355985260382</v>
+        <v>14.56082076980098</v>
       </c>
       <c r="C6" t="n">
-        <v>22.56257848337445</v>
+        <v>22.44469786905776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.69414521400686</v>
+        <v>14.56324355222458</v>
       </c>
       <c r="C7" t="n">
-        <v>22.52944917738828</v>
+        <v>22.43152196630176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.67408945050213</v>
+        <v>14.54821185866155</v>
       </c>
       <c r="C8" t="n">
-        <v>22.54715835203611</v>
+        <v>22.45531765322306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.69549093456045</v>
+        <v>14.57407853556555</v>
       </c>
       <c r="C9" t="n">
-        <v>22.5189632524404</v>
+        <v>22.45838247355496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.67949299936367</v>
+        <v>14.58730029836311</v>
       </c>
       <c r="C10" t="n">
-        <v>22.55797782978884</v>
+        <v>22.40950463928297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.68606969036923</v>
+        <v>14.56180248557641</v>
       </c>
       <c r="C11" t="n">
-        <v>22.58686847416819</v>
+        <v>22.46903412550548</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.68593560827542</v>
+        <v>14.5689607453938</v>
       </c>
       <c r="C12" t="n">
-        <v>22.54770524511986</v>
+        <v>22.43688437160669</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C011_120.xlsx
+++ b/Python/resultados/HW_C011_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>30.95469958623617</v>
       </c>
+      <c r="D2" t="n">
+        <v>30.7776983602707</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>30.94594025855241</v>
       </c>
+      <c r="D3" t="n">
+        <v>30.77050594623125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>30.95196471224806</v>
       </c>
+      <c r="D4" t="n">
+        <v>30.77691906802857</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>30.9284795414577</v>
       </c>
+      <c r="D5" t="n">
+        <v>30.77259273070513</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>30.94385957015226</v>
       </c>
+      <c r="D6" t="n">
+        <v>30.76426949011036</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>30.9421712131131</v>
       </c>
+      <c r="D7" t="n">
+        <v>30.7632603682025</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>30.92070938909953</v>
       </c>
+      <c r="D8" t="n">
+        <v>30.75836428566049</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>30.91092999684085</v>
       </c>
+      <c r="D9" t="n">
+        <v>30.74415907967398</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>30.9329328084545</v>
       </c>
+      <c r="D10" t="n">
+        <v>30.74355245377975</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>30.91411999277354</v>
       </c>
+      <c r="D11" t="n">
+        <v>30.74720355168089</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>30.93458070689281</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.76185253343436</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>27.72216175425647</v>
       </c>
+      <c r="D2" t="n">
+        <v>26.89139749752403</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>27.7557374228078</v>
       </c>
+      <c r="D3" t="n">
+        <v>26.93310444305272</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>27.72065624395826</v>
       </c>
+      <c r="D4" t="n">
+        <v>26.92105600439268</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>27.74387410776457</v>
       </c>
+      <c r="D5" t="n">
+        <v>26.92738566519877</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>27.76003178999528</v>
       </c>
+      <c r="D6" t="n">
+        <v>26.96486343573279</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>27.73792074456587</v>
       </c>
+      <c r="D7" t="n">
+        <v>26.90451531606208</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>27.75306045787445</v>
       </c>
+      <c r="D8" t="n">
+        <v>26.93748313618756</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>27.74286629429223</v>
       </c>
+      <c r="D9" t="n">
+        <v>26.93446788302758</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>27.77910290379109</v>
       </c>
+      <c r="D10" t="n">
+        <v>26.95557959879827</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>27.78218657562942</v>
       </c>
+      <c r="D11" t="n">
+        <v>26.95469786498783</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>27.74975982949355</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.93245508449643</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>22.39794536257531</v>
       </c>
+      <c r="D2" t="n">
+        <v>20.97272681953596</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>22.41449991866852</v>
       </c>
+      <c r="D3" t="n">
+        <v>20.99556740196243</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>22.43477074005446</v>
       </c>
+      <c r="D4" t="n">
+        <v>21.03179712592421</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>22.45316896784264</v>
       </c>
+      <c r="D5" t="n">
+        <v>21.05366682736798</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>22.44469786905776</v>
       </c>
+      <c r="D6" t="n">
+        <v>21.02341674113636</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>22.43152196630176</v>
       </c>
+      <c r="D7" t="n">
+        <v>21.03181201463027</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>22.45531765322306</v>
       </c>
+      <c r="D8" t="n">
+        <v>21.03961152799299</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>22.45838247355496</v>
       </c>
+      <c r="D9" t="n">
+        <v>21.04843147483341</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>22.40950463928297</v>
       </c>
+      <c r="D10" t="n">
+        <v>21.0057503874357</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>22.46903412550548</v>
       </c>
+      <c r="D11" t="n">
+        <v>21.04957071688169</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>22.43688437160669</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.0252351037701</v>
       </c>
     </row>
   </sheetData>
